--- a/financial_analysis_summary.xlsx
+++ b/financial_analysis_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,25 +481,20 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Average_Class_Volatility</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Correlation_with_Market</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Correlation_with_Market</t>
+          <t>R_Squared</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>R_Squared</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Data_Points</t>
         </is>
@@ -518,19 +513,19 @@
         <v>0.0175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163</v>
+        <v>0.1584</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2783</v>
+        <v>0.278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5858</v>
+        <v>0.5697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.946</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>13.9776</v>
+        <v>14.0461</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0925</v>
@@ -538,17 +533,16 @@
       <c r="J2" t="n">
         <v>0.1533</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1.184198104117674</v>
+      </c>
       <c r="L2" t="n">
-        <v>1.187311863839751</v>
+        <v>0.7028000837994652</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7032590747700754</v>
+        <v>0.4939279577885354</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4945733262464626</v>
-      </c>
-      <c r="O2" t="n">
         <v>501</v>
       </c>
     </row>
@@ -565,19 +559,19 @@
         <v>0.0186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2662</v>
+        <v>0.2693</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2947</v>
+        <v>0.295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9033</v>
+        <v>0.913</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1892</v>
+        <v>-0.1862</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3837</v>
+        <v>5.3597</v>
       </c>
       <c r="I3" t="n">
         <v>-0.0951</v>
@@ -585,17 +579,16 @@
       <c r="J3" t="n">
         <v>0.1022</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1.09040109559776</v>
+      </c>
       <c r="L3" t="n">
-        <v>1.088923154563735</v>
+        <v>0.6099254016694213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6091164725865379</v>
+        <v>0.3720089956016049</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3710228771762666</v>
-      </c>
-      <c r="O3" t="n">
         <v>501</v>
       </c>
     </row>
@@ -606,25 +599,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0014</v>
+        <v>0.0015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04</v>
+        <v>0.0401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3576</v>
+        <v>0.381</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6349</v>
+        <v>0.6363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5633</v>
+        <v>0.5988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6888</v>
+        <v>0.6843</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6992</v>
+        <v>4.6366</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1543</v>
@@ -632,17 +625,16 @@
       <c r="J4" t="n">
         <v>0.2269</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>2.260707725581899</v>
+      </c>
       <c r="L4" t="n">
-        <v>2.251485950706916</v>
+        <v>0.5862692072607113</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5845801762685138</v>
+        <v>0.3437115833821028</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3417339824861266</v>
-      </c>
-      <c r="O4" t="n">
         <v>501</v>
       </c>
     </row>
@@ -653,25 +645,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="C5" t="n">
         <v>0.0104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2138</v>
+        <v>0.216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1648</v>
+        <v>0.165</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2972</v>
+        <v>1.3088</v>
       </c>
       <c r="G5" t="n">
-        <v>1.1355</v>
+        <v>1.1333</v>
       </c>
       <c r="H5" t="n">
-        <v>23.2745</v>
+        <v>23.1748</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0585</v>
@@ -679,11 +671,18 @@
       <c r="J5" t="n">
         <v>0.105</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -698,19 +697,19 @@
         <v>0.0132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2487</v>
+        <v>0.2485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2099</v>
+        <v>0.2098</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1851</v>
+        <v>1.1843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8107</v>
+        <v>0.8108</v>
       </c>
       <c r="H6" t="n">
-        <v>14.321</v>
+        <v>14.3248</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0621</v>
@@ -718,17 +717,16 @@
       <c r="J6" t="n">
         <v>0.12</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1.219462404147546</v>
+      </c>
       <c r="L6" t="n">
-        <v>1.220763266697803</v>
+        <v>0.9588425327119318</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9588807074233893</v>
+        <v>0.9193790025374319</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9194522110687795</v>
-      </c>
-      <c r="O6" t="n">
         <v>501</v>
       </c>
     </row>
@@ -745,19 +743,19 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2928</v>
+        <v>0.2931</v>
       </c>
       <c r="E7" t="n">
         <v>0.1591</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8402</v>
+        <v>1.8417</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0429</v>
+        <v>-0.043</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0074</v>
+        <v>1.0061</v>
       </c>
       <c r="I7" t="n">
         <v>-0.0357</v>
@@ -765,17 +763,16 @@
       <c r="J7" t="n">
         <v>0.037</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.09573965558166579</v>
+      </c>
       <c r="L7" t="n">
-        <v>0.09507530327624759</v>
+        <v>0.09926356379498978</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09848911447036343</v>
+        <v>0.009853255097282005</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009700105669156351</v>
-      </c>
-      <c r="O7" t="n">
         <v>501</v>
       </c>
     </row>
@@ -792,19 +789,19 @@
         <v>0.0176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2796</v>
+        <v>0.2707</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2798</v>
+        <v>0.2789</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9992</v>
+        <v>0.9707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0135</v>
+        <v>0.0029</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3609</v>
+        <v>1.3797</v>
       </c>
       <c r="I8" t="n">
         <v>-0.06519999999999999</v>
@@ -812,17 +809,16 @@
       <c r="J8" t="n">
         <v>0.0639</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.4633620344859677</v>
+      </c>
       <c r="L8" t="n">
-        <v>0.4660510761788185</v>
+        <v>0.2741491321802776</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2745735850022161</v>
+        <v>0.07515774667519934</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07539065358096921</v>
-      </c>
-      <c r="O8" t="n">
         <v>501</v>
       </c>
     </row>
@@ -833,25 +829,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="C9" t="n">
         <v>0.0187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.057</v>
+        <v>0.0668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2974</v>
+        <v>0.2973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1916</v>
+        <v>0.2248</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2054</v>
+        <v>-0.2112</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4133</v>
+        <v>1.4209</v>
       </c>
       <c r="I9" t="n">
         <v>-0.08069999999999999</v>
@@ -859,17 +855,16 @@
       <c r="J9" t="n">
         <v>0.0689</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.3273858226395131</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.3237613146741293</v>
+        <v>0.1817129300185401</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1794634899613292</v>
+        <v>0.03301958893592283</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03220714422910011</v>
-      </c>
-      <c r="O9" t="n">
         <v>501</v>
       </c>
     </row>
@@ -886,19 +881,19 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1822</v>
+        <v>0.1826</v>
       </c>
       <c r="E10" t="n">
         <v>0.1529</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1917</v>
+        <v>1.1946</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3786</v>
+        <v>-0.3783</v>
       </c>
       <c r="H10" t="n">
-        <v>1.8744</v>
+        <v>1.8715</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0486</v>
@@ -906,17 +901,16 @@
       <c r="J10" t="n">
         <v>0.0303</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.1779771087446846</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.1773052327744374</v>
+        <v>0.1920722136958383</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1912022492789358</v>
+        <v>0.03689173527401976</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03655830012932431</v>
-      </c>
-      <c r="O10" t="n">
         <v>501</v>
       </c>
     </row>
